--- a/Örnek 9 - Eğer - 2.xlsx
+++ b/Örnek 9 - Eğer - 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Desktop\OneDrive_2018-12-18\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88a89685dae84bb8/Masaüstü/excel ödevi 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B99D415E-BBC2-4E4B-B77C-0FA74E064769}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B3568B4-E103-485E-8109-C752E575F04B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="www.tugrulaktas.com" sheetId="6" r:id="rId1"/>
@@ -20,12 +20,14 @@
     <definedName name="dilek">#REF!</definedName>
     <definedName name="sanem">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>GUNLER</t>
   </si>
@@ -87,12 +89,18 @@
   </si>
   <si>
     <t>Bölüm:</t>
+  </si>
+  <si>
+    <t>KÜBRA ÇABUK</t>
+  </si>
+  <si>
+    <t>YBS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -466,11 +474,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -478,8 +486,9 @@
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -506,13 +515,24 @@
       <c r="B2" s="5">
         <v>5</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="6" t="str">
+        <f>IF(B2&gt;24,"SICAK", "NORMAL")</f>
+        <v>NORMAL</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f>IF(B2=25,"BUGÜN HAVA ÇOK GÜZEL ILIK", "SICAK YA DA SOĞUK OLABİLİR")</f>
+        <v>SICAK YA DA SOĞUK OLABİLİR</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>IF(B2&lt;24,"HAVAYA DİKKAT EDİN","BUGÜN HAVA 25 DERECE")</f>
+        <v>HAVAYA DİKKAT EDİN</v>
+      </c>
       <c r="G2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="8">
+        <v>20215070019</v>
+      </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
@@ -523,13 +543,24 @@
       <c r="B3" s="6">
         <v>10</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="C3" s="6" t="str">
+        <f t="shared" ref="C3:C8" si="0">IF(B3&gt;24,"SICAK", "NORMAL")</f>
+        <v>NORMAL</v>
+      </c>
+      <c r="D3" s="6" t="str">
+        <f t="shared" ref="D3:D8" si="1">IF(B3=25,"BUGÜN HAVA ÇOK GÜZEL ILIK", "SICAK YA DA SOĞUK OLABİLİR")</f>
+        <v>SICAK YA DA SOĞUK OLABİLİR</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f t="shared" ref="E3:E5" si="2">IF(B3&lt;24,"HAVAYA DİKKAT EDİN","BUGÜN HAVA 25 DERECE")</f>
+        <v>HAVAYA DİKKAT EDİN</v>
+      </c>
       <c r="G3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
@@ -540,13 +571,24 @@
       <c r="B4" s="6">
         <v>15</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="C4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+      <c r="D4" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>SICAK YA DA SOĞUK OLABİLİR</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>HAVAYA DİKKAT EDİN</v>
+      </c>
       <c r="G4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
@@ -557,9 +599,18 @@
       <c r="B5" s="6">
         <v>20</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="C5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMAL</v>
+      </c>
+      <c r="D5" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>SICAK YA DA SOĞUK OLABİLİR</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>HAVAYA DİKKAT EDİN</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -568,9 +619,18 @@
       <c r="B6" s="6">
         <v>25</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="C6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SICAK</v>
+      </c>
+      <c r="D6" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>BUGÜN HAVA ÇOK GÜZEL ILIK</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f t="shared" ref="E3:E8" si="3">IF(B6&lt;24,"HAVAYA DİKKAY EDİN","BUGÜN HAVA 25 DERECE")</f>
+        <v>BUGÜN HAVA 25 DERECE</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -579,9 +639,18 @@
       <c r="B7" s="6">
         <v>30</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="C7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SICAK</v>
+      </c>
+      <c r="D7" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>SICAK YA DA SOĞUK OLABİLİR</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>BUGÜN HAVA 25 DERECE</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -590,9 +659,18 @@
       <c r="B8" s="6">
         <v>35</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SICAK</v>
+      </c>
+      <c r="D8" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>SICAK YA DA SOĞUK OLABİLİR</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>BUGÜN HAVA 25 DERECE</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
